--- a/Sep19/pos_prof/Tables/regions-M.xlsx
+++ b/Sep19/pos_prof/Tables/regions-M.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>M_ETR</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>M_POP</t>
+  </si>
+  <si>
+    <t>M_TotalTax</t>
+  </si>
+  <si>
+    <t>M_CorpTax</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -431,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -477,10 +483,16 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0.20743390879697</v>
@@ -495,33 +507,39 @@
         <v>2228507768.5</v>
       </c>
       <c r="F2">
+        <v>5453258922371.839</v>
+      </c>
+      <c r="G2">
+        <v>901477052802.8717</v>
+      </c>
+      <c r="H2">
         <v>198057585.7902479</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>14453050070.49795</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-8046769460.181428</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>1529848613.198352</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>26611334.34737122</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>1941934949.023324</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>133056671.7368351</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>9709674745.116608</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0.2130948962122795</v>
@@ -536,33 +554,39 @@
         <v>832566422</v>
       </c>
       <c r="F3">
+        <v>7186470855993.515</v>
+      </c>
+      <c r="G3">
+        <v>480200693963.0637</v>
+      </c>
+      <c r="H3">
         <v>40893207331.23158</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>34193134939.91517</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>25357278342.56209</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>20856116070.85506</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>5494476813.324949</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>4594244358.983544</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>27472384066.62469</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>22971221794.91767</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0.2374553544560417</v>
@@ -577,33 +601,39 @@
         <v>573353725</v>
       </c>
       <c r="F4">
+        <v>1002696890625.219</v>
+      </c>
+      <c r="G4">
+        <v>134030001792.1409</v>
+      </c>
+      <c r="H4">
         <v>-4120010487.330921</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>29293505911.08067</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>-4246668044.981955</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>18200799772.30896</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>-553571205.8468537</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>3935922357.611331</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>-2767856029.234274</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>19679611788.05663</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0.4293297816364376</v>
@@ -618,33 +648,39 @@
         <v>253949523.25</v>
       </c>
       <c r="F5">
+        <v>241723618867.4443</v>
+      </c>
+      <c r="G5">
+        <v>38152875196.83905</v>
+      </c>
+      <c r="H5">
         <v>-3501846943.285268</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>-1844037848.999198</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>-2927257918.774036</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>-1813528497.198766</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>-470513762.2941798</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>-247767877.9791258</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>-2352568811.4709</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>-1238839389.895631</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0.2048529706690015</v>
@@ -659,33 +695,39 @@
         <v>358282006.25</v>
       </c>
       <c r="F6">
+        <v>5526698445364.336</v>
+      </c>
+      <c r="G6">
+        <v>408160442622.5067</v>
+      </c>
+      <c r="H6">
         <v>64703841901.20721</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>31418366619.76833</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>82572780214.14653</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>60211331444.30538</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>8693711798.627007</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>4221422044.658731</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>43468558993.13467</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>21107110223.29351</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0.3411401792246058</v>
@@ -700,33 +742,39 @@
         <v>1691005608</v>
       </c>
       <c r="F7">
+        <v>457036063703.7742</v>
+      </c>
+      <c r="G7">
+        <v>4932505470.985653</v>
+      </c>
+      <c r="H7">
         <v>-5474825857.347231</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>20863716413.31658</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>-6038417370.027202</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>11656026187.646</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>-735606368.2295727</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>2803282343.305067</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>-3678031841.147861</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>14016411716.52534</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0.4546822824075114</v>
@@ -738,30 +786,36 @@
         <v>876719000000</v>
       </c>
       <c r="E8">
-        <v>363813169.25</v>
+        <v>366265684.25</v>
       </c>
       <c r="F8">
+        <v>114563677189.0651</v>
+      </c>
+      <c r="G8">
+        <v>24178295225.23782</v>
+      </c>
+      <c r="H8">
         <v>-860231240.0704244</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>310858593.7229952</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>969129335.599108</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>1755876861.414262</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>-115582046.7780938</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>41767458.38493717</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>-577910233.89047</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>208837291.9246821</v>
       </c>
     </row>
